--- a/xlsx/民主_intext.xlsx
+++ b/xlsx/民主_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="870">
   <si>
     <t>民主</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%AD%B0%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>審議民主</t>
+    <t>审议民主</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anticipatory_democracy</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>威權民主制</t>
+    <t>威权民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E6%B0%91%E4%B8%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>激進民主</t>
+    <t>激进民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>伊斯蘭民主制</t>
+    <t>伊斯兰民主制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economic_democracy</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>產業民主</t>
+    <t>产业民主</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/E-democracy</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E6%94%BF%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%9A%84%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>民主的種類</t>
+    <t>民主的种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Democracy</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -461,9 +461,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
   </si>
   <si>
-    <t>政体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -521,9 +518,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神权政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
   </si>
   <si>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -713,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%A8%E6%B0%91</t>
   </si>
   <si>
-    <t>主權在民</t>
+    <t>主权在民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
@@ -731,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9F%8E%E9%82%A6</t>
   </si>
   <si>
-    <t>希臘城邦</t>
+    <t>希腊城邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -803,13 +797,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭統治</t>
+    <t>寡头统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83</t>
@@ -821,31 +812,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2_(%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7)</t>
   </si>
   <si>
-    <t>歷史 (希羅多德)</t>
+    <t>历史 (希罗多德)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%81%E5%A3%AB%E4%B8%80%E4%B8%96</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%8D%80</t>
   </si>
   <si>
-    <t>選舉區</t>
+    <t>选举区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%8A%95%E7%A5%A8</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B0%91%E6%97%8F</t>
@@ -905,25 +896,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
+    <t>苏格拉底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%A6%E9%94%A1</t>
@@ -941,15 +932,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟學人</t>
+    <t>经济学人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
   </si>
   <si>
@@ -959,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -983,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -995,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -1031,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -1085,15 +1073,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%85%9A_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
@@ -1103,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%B7</t>
@@ -1127,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>石器時代</t>
+    <t>石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
@@ -1139,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AA%E8%AE%93</t>
   </si>
   <si>
-    <t>禪讓</t>
+    <t>禅让</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1151,19 +1136,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%B4%84</t>
   </si>
   <si>
-    <t>舊約</t>
+    <t>旧约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%B8%AB%E8%A8%98</t>
   </si>
   <si>
-    <t>士師記</t>
+    <t>士师记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB</t>
   </si>
   <si>
-    <t>巴比倫</t>
+    <t>巴比伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%99%80</t>
@@ -1175,13 +1160,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E6%AF%97%E7%BE%85%E8%A1%9B</t>
   </si>
   <si>
-    <t>迦毗羅衛</t>
+    <t>迦毗罗卫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BF%84%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>希俄斯島</t>
+    <t>希俄斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%B8%9D%E5%9B%BD</t>
@@ -1199,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
   </si>
   <si>
-    <t>羅馬元老院</t>
+    <t>罗马元老院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AD%E7%8E%8B%E5%9B%BD</t>
@@ -1211,25 +1196,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>易洛魁聯盟</t>
+    <t>易洛魁联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
   </si>
   <si>
-    <t>哈里發</t>
+    <t>哈里发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>酋長</t>
+    <t>酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -1241,25 +1226,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6</t>
   </si>
   <si>
-    <t>代議制</t>
+    <t>代议制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
   </si>
   <si>
-    <t>普選</t>
+    <t>普选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA</t>
@@ -1271,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%91%9E%E5%A3%AB%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>舊瑞士邦聯</t>
+    <t>旧瑞士邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>佛羅倫斯</t>
+    <t>佛罗伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF</t>
@@ -1289,13 +1274,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>大憲章</t>
+    <t>大宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1307,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%90%E6%95%97%E9%81%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>腐敗選區</t>
+    <t>腐败选区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
@@ -1325,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國會</t>
+    <t>英国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>輝格黨 (英國)</t>
+    <t>辉格党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
@@ -1343,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%A4%9A%E5%88%A9%E4%BA%9A%E5%A5%B3%E7%8E%8B</t>
@@ -1361,9 +1346,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法国大革命</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%92%8C%E5%85%AC%E6%B0%91%E6%9D%83%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
@@ -1373,13 +1355,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83_(%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD)</t>
   </si>
   <si>
-    <t>國民議會 (法國大革命)</t>
+    <t>国民议会 (法国大革命)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E9%80%89%E4%B8%BE%E6%9D%83</t>
@@ -1391,13 +1373,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
@@ -1415,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
@@ -1463,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%8C%96</t>
@@ -1487,13 +1469,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -1505,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E7%A6%8F%E5%B1%B1</t>
   </si>
   <si>
-    <t>法蘭西斯·福山</t>
+    <t>法兰西斯·福山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -1517,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%97%E4%B8%8D%E5%8F%AF%E8%83%BD%E5%AE%9A%E7%90%86</t>
@@ -1529,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
@@ -1541,25 +1523,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>多數統治</t>
+    <t>多数统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
@@ -1571,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8%E4%BA%BA%E6%96%87%E9%9B%86</t>
   </si>
   <si>
-    <t>聯邦黨人文集</t>
+    <t>联邦党人文集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
@@ -1589,19 +1571,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>共和國</t>
+    <t>共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>代議制民主</t>
+    <t>代议制民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF</t>
@@ -1631,19 +1613,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>司法獨立</t>
+    <t>司法独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
@@ -1655,13 +1637,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>俄羅斯政治</t>
+    <t>俄罗斯政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6</t>
@@ -1679,13 +1658,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E4%BF%84%E7%BE%85%E6%96%AF%E9%BB%A8</t>
   </si>
   <si>
-    <t>統一俄羅斯黨</t>
+    <t>统一俄罗斯党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E7%8D%A8%E5%A4%A7</t>
   </si>
   <si>
-    <t>一黨獨大</t>
+    <t>一党独大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B9%8B%E5%AE%B6</t>
@@ -1703,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%94%BF%E6%B2%BB</t>
@@ -1733,73 +1712,70 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>法國政治</t>
+    <t>法国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E8%BC%AA%E6%8A%95%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩輪投票制</t>
+    <t>两轮投票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國政治</t>
+    <t>美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8B%E6%86%B2</t>
   </si>
   <si>
-    <t>釋憲</t>
+    <t>释宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>韓國政治</t>
+    <t>韩国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -1811,25 +1787,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>憲法法院</t>
+    <t>宪法法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>英國政治</t>
+    <t>英国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>英格蘭共和國</t>
+    <t>英格兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
@@ -1853,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>蘇聯解體</t>
+    <t>苏联解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -1865,25 +1841,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>人民民主專政</t>
+    <t>人民民主专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E8%B2%9D%E5%85%8B%E6%9B%BC</t>
   </si>
   <si>
-    <t>亞歷山大·貝克曼</t>
+    <t>亚历山大·贝克曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1895,21 +1868,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%82%91%E6%98%8E%C2%B7%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>班傑明·塔克</t>
+    <t>班杰明·塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE-%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E9%AD%AF%E6%9D%B1</t>
   </si>
   <si>
-    <t>皮埃爾-約瑟夫·普魯東</t>
+    <t>皮埃尔-约瑟夫·普鲁东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>威权主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
   </si>
   <si>
@@ -1919,19 +1889,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1</t>
   </si>
   <si>
-    <t>血統</t>
+    <t>血统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B5%B1</t>
   </si>
   <si>
-    <t>法統</t>
+    <t>法统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%A8%81</t>
@@ -1943,13 +1913,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%A0%E8%AA%A0</t>
   </si>
   <si>
-    <t>忠誠</t>
+    <t>忠诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -1961,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
@@ -1991,9 +1961,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B0%E7%BB%8F</t>
   </si>
   <si>
@@ -2015,9 +1982,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
@@ -2039,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C%E7%A4%BE</t>
@@ -2051,45 +2015,42 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>中學</t>
+    <t>中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>學生會</t>
+    <t>学生会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%95%B7%E6%95%99%E5%B8%AB%E6%9C%83</t>
   </si>
   <si>
-    <t>家長教師會</t>
+    <t>家长教师会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>小學</t>
+    <t>小学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%9A%84%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>民主的歷史</t>
+    <t>民主的历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F%E5%88%B6</t>
   </si>
   <si>
-    <t>貴族制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E5%88%B6</t>
   </si>
   <si>
@@ -2099,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%AF%E9%85%8D%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>無支配體制</t>
+    <t>无支配体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -2135,7 +2096,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
@@ -2231,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -2429,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E9%9B%B7%C2%B7%E8%B2%9D%E5%8D%A1%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>切薩雷·貝卡里亞</t>
+    <t>切萨雷·贝卡里亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaetano_Filangieri</t>
@@ -2537,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>約瑟夫·布拉克</t>
+    <t>约瑟夫·布拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%8C%85%E6%96%AF%E5%A8%81%E5%B0%94</t>
@@ -2573,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%93%88%E5%A5%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>法蘭西斯·哈奇森</t>
+    <t>法兰西斯·哈奇森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -2627,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
   </si>
   <si>
-    <t>喬治·梅森</t>
+    <t>乔治·梅森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
@@ -2639,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2657,13 +2618,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5238,7 +5199,7 @@
         <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5264,10 +5225,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5293,10 +5254,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>7</v>
@@ -5322,10 +5283,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5351,10 +5312,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5409,10 +5370,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5438,10 +5399,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5467,10 +5428,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5496,10 +5457,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -5525,10 +5486,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -5554,10 +5515,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5583,10 +5544,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -5612,10 +5573,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5641,10 +5602,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5670,10 +5631,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5699,10 +5660,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5728,10 +5689,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5757,10 +5718,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5786,10 +5747,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5815,10 +5776,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5844,10 +5805,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>8</v>
@@ -5873,10 +5834,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5902,10 +5863,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5931,10 +5892,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5960,10 +5921,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5989,10 +5950,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6018,10 +5979,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6047,10 +6008,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6076,10 +6037,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6105,10 +6066,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6134,10 +6095,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -6163,10 +6124,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6192,10 +6153,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6221,10 +6182,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6250,10 +6211,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6279,10 +6240,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6308,10 +6269,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>7</v>
@@ -6337,10 +6298,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>24</v>
@@ -6366,10 +6327,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6395,10 +6356,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>37</v>
@@ -6424,10 +6385,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6453,10 +6414,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6482,10 +6443,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6511,10 +6472,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>25</v>
@@ -6540,10 +6501,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>21</v>
@@ -6598,10 +6559,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6627,10 +6588,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6656,10 +6617,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>6</v>
@@ -6685,10 +6646,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6714,10 +6675,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6743,10 +6704,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>41</v>
@@ -6772,10 +6733,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -6801,10 +6762,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6830,10 +6791,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6859,10 +6820,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -6888,10 +6849,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6917,10 +6878,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>9</v>
@@ -6946,10 +6907,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="G136" t="n">
         <v>19</v>
@@ -6975,10 +6936,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7004,10 +6965,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7033,10 +6994,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7062,10 +7023,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -7091,10 +7052,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7120,10 +7081,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>13</v>
@@ -7149,10 +7110,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -7178,10 +7139,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7207,10 +7168,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -7265,10 +7226,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7294,10 +7255,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7323,10 +7284,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7352,10 +7313,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7381,10 +7342,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7410,10 +7371,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>9</v>
@@ -7439,10 +7400,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7468,10 +7429,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>7</v>
@@ -7497,10 +7458,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>5</v>
@@ -7526,10 +7487,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7555,10 +7516,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7584,10 +7545,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7642,10 +7603,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>9</v>
@@ -7671,10 +7632,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -7700,10 +7661,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
@@ -7729,10 +7690,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7758,10 +7719,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7787,10 +7748,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>14</v>
@@ -7816,10 +7777,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>11</v>
@@ -7845,10 +7806,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7874,10 +7835,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7903,10 +7864,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -7932,10 +7893,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7961,10 +7922,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7990,10 +7951,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8019,10 +7980,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8048,10 +8009,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8077,10 +8038,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8106,10 +8067,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8135,10 +8096,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8164,10 +8125,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8193,10 +8154,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>6</v>
@@ -8222,10 +8183,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8251,10 +8212,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8280,10 +8241,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8309,10 +8270,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>18</v>
@@ -8338,10 +8299,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>162</v>
+      </c>
+      <c r="F184" t="s">
         <v>163</v>
-      </c>
-      <c r="F184" t="s">
-        <v>164</v>
       </c>
       <c r="G184" t="n">
         <v>5</v>
@@ -8367,10 +8328,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8396,10 +8357,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8425,10 +8386,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8454,10 +8415,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8483,10 +8444,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8512,10 +8473,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8541,10 +8502,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8570,10 +8531,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8599,10 +8560,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8628,10 +8589,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8657,10 +8618,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8686,10 +8647,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8715,10 +8676,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8744,10 +8705,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8773,10 +8734,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8802,10 +8763,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8831,10 +8792,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8860,10 +8821,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8889,10 +8850,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8918,10 +8879,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8947,10 +8908,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8976,10 +8937,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9005,10 +8966,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9034,10 +8995,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9063,10 +9024,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9092,10 +9053,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9121,10 +9082,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9150,10 +9111,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -9179,10 +9140,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9208,10 +9169,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>5</v>
@@ -9237,10 +9198,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9266,10 +9227,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9295,10 +9256,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9324,10 +9285,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9353,10 +9314,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9382,10 +9343,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>11</v>
@@ -9411,10 +9372,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9440,10 +9401,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9469,10 +9430,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9498,10 +9459,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9527,10 +9488,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9556,10 +9517,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9585,10 +9546,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9614,10 +9575,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9643,10 +9604,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9672,10 +9633,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9701,10 +9662,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9730,10 +9691,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9759,10 +9720,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9788,10 +9749,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9817,10 +9778,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9846,10 +9807,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9875,10 +9836,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9904,10 +9865,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9933,10 +9894,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9962,10 +9923,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9991,10 +9952,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10020,10 +9981,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10049,10 +10010,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10078,10 +10039,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10107,10 +10068,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10136,10 +10097,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10165,10 +10126,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -10194,10 +10155,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10223,10 +10184,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10252,10 +10213,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10281,10 +10242,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>10</v>
@@ -10310,10 +10271,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10339,10 +10300,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10368,10 +10329,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10397,10 +10358,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10426,10 +10387,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10455,10 +10416,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10513,10 +10474,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10542,10 +10503,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10571,10 +10532,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10600,10 +10561,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10629,10 +10590,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10687,10 +10648,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10716,10 +10677,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10745,10 +10706,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10774,10 +10735,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10803,10 +10764,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10832,10 +10793,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10861,10 +10822,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10890,10 +10851,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>8</v>
@@ -10919,10 +10880,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10948,10 +10909,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10977,10 +10938,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>11</v>
@@ -11006,10 +10967,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11035,10 +10996,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11064,10 +11025,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11093,10 +11054,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11122,10 +11083,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F280" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11151,10 +11112,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11180,10 +11141,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>9</v>
@@ -11209,10 +11170,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11238,10 +11199,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>206</v>
       </c>
       <c r="G284" t="n">
         <v>4</v>
@@ -11267,10 +11228,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11296,10 +11257,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11325,10 +11286,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11354,10 +11315,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11383,10 +11344,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11412,10 +11373,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11441,10 +11402,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11470,10 +11431,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11499,10 +11460,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11528,10 +11489,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11557,10 +11518,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11586,10 +11547,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11615,10 +11576,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11644,10 +11605,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11673,10 +11634,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11702,10 +11663,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>165</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11731,10 +11692,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11760,10 +11721,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11789,10 +11750,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11818,10 +11779,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11847,10 +11808,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11876,10 +11837,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11905,10 +11866,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11934,10 +11895,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11963,10 +11924,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>3</v>
@@ -11992,10 +11953,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F310" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12021,10 +11982,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12050,10 +12011,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12079,10 +12040,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12108,10 +12069,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12137,10 +12098,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12166,10 +12127,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12195,10 +12156,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12224,10 +12185,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12253,10 +12214,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12282,10 +12243,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12311,10 +12272,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12340,10 +12301,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>149</v>
       </c>
       <c r="G322" t="n">
         <v>5</v>
@@ -12369,10 +12330,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12398,10 +12359,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12427,10 +12388,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12456,10 +12417,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12485,10 +12446,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>112</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12514,10 +12475,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12543,10 +12504,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12572,10 +12533,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12601,10 +12562,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12630,10 +12591,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>4</v>
@@ -12659,10 +12620,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>16</v>
@@ -12688,10 +12649,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12717,10 +12678,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12746,10 +12707,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12775,10 +12736,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12804,10 +12765,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12833,10 +12794,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12862,10 +12823,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12891,10 +12852,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>289</v>
       </c>
       <c r="G341" t="n">
         <v>6</v>
@@ -12920,10 +12881,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12949,10 +12910,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G343" t="n">
         <v>20</v>
@@ -12978,10 +12939,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13007,10 +12968,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>228</v>
       </c>
       <c r="G345" t="n">
         <v>4</v>
@@ -13036,10 +12997,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13065,10 +13026,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13094,10 +13055,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13123,10 +13084,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13152,10 +13113,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13181,10 +13142,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13210,10 +13171,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
@@ -13239,10 +13200,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13268,10 +13229,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13297,10 +13258,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13326,10 +13287,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13355,10 +13316,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>98</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13384,10 +13345,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13413,10 +13374,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13442,10 +13403,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13471,10 +13432,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13500,10 +13461,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13529,10 +13490,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13558,10 +13519,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="F364" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13587,10 +13548,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -13616,10 +13577,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F366" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13645,10 +13606,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F367" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13674,10 +13635,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F368" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13703,10 +13664,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13732,10 +13693,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13761,10 +13722,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13790,10 +13751,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13819,10 +13780,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13848,10 +13809,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F374" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13877,10 +13838,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F375" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13906,10 +13867,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="F376" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13935,10 +13896,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F377" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13964,10 +13925,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F378" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13993,10 +13954,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F379" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14022,10 +13983,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="F380" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14051,10 +14012,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F381" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14080,10 +14041,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="F382" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14109,10 +14070,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="F383" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="G383" t="n">
         <v>4</v>
@@ -14138,10 +14099,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F384" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14167,10 +14128,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="F385" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14196,10 +14157,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="F386" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14225,10 +14186,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="F387" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14254,10 +14215,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="F388" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14283,10 +14244,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="F389" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14312,10 +14273,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F390" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -14341,10 +14302,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F391" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14370,10 +14331,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F392" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14399,10 +14360,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F393" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14428,10 +14389,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F394" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14457,10 +14418,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14486,10 +14447,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14515,10 +14476,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14544,10 +14505,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14573,10 +14534,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="F399" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14602,10 +14563,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F400" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14631,10 +14592,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14660,10 +14621,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14689,10 +14650,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14718,10 +14679,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14747,10 +14708,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14776,10 +14737,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14805,10 +14766,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14834,10 +14795,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14863,10 +14824,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14892,10 +14853,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F410" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14921,10 +14882,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F411" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14950,10 +14911,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14979,10 +14940,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15008,10 +14969,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15037,10 +14998,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15066,10 +15027,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15095,10 +15056,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15124,10 +15085,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15153,10 +15114,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15182,10 +15143,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15211,10 +15172,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15240,10 +15201,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15269,10 +15230,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15298,10 +15259,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15327,10 +15288,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15356,10 +15317,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15385,10 +15346,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15414,10 +15375,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15443,10 +15404,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15472,10 +15433,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15501,10 +15462,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15530,10 +15491,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15559,10 +15520,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15588,10 +15549,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15617,10 +15578,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15646,10 +15607,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15675,10 +15636,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15704,10 +15665,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15733,10 +15694,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15762,10 +15723,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15791,10 +15752,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15820,10 +15781,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15849,10 +15810,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15878,10 +15839,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15907,10 +15868,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15936,10 +15897,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15965,10 +15926,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15994,10 +15955,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16023,10 +15984,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16052,10 +16013,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="F450" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -16081,10 +16042,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F451" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16110,10 +16071,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="F452" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16139,10 +16100,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="F453" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16168,10 +16129,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="F454" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>

--- a/xlsx/民主_intext.xlsx
+++ b/xlsx/民主_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="891">
   <si>
     <t>民主</t>
   </si>
@@ -29,7 +29,7 @@
     <t>自由民主制</t>
   </si>
   <si>
-    <t>政策_政策_政治_民主</t>
+    <t>体育运动_体育运动_规则_民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -710,6 +710,12 @@
     <t>政党</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%A8%E6%B0%91</t>
   </si>
   <si>
@@ -728,6 +734,12 @@
     <t>直接选举</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>極權主義</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
@@ -752,6 +764,12 @@
     <t>选举权</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E9%81%B8%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>參選人</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%88%B4%E8%92%99%E5%BE%B7</t>
   </si>
   <si>
@@ -2118,6 +2136,12 @@
   </si>
   <si>
     <t>Wikisource</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Archive.is</t>
+  </si>
+  <si>
+    <t>Archive.is</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E8%B5%9F</t>
@@ -3012,7 +3036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I454"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4081,7 +4105,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -6488,7 +6512,7 @@
         <v>232</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6517,7 +6541,7 @@
         <v>234</v>
       </c>
       <c r="G121" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6546,7 +6570,7 @@
         <v>236</v>
       </c>
       <c r="G122" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6569,13 +6593,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -6598,13 +6622,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -6662,7 +6686,7 @@
         <v>242</v>
       </c>
       <c r="G126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -6691,7 +6715,7 @@
         <v>244</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -6720,7 +6744,7 @@
         <v>246</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6749,7 +6773,7 @@
         <v>248</v>
       </c>
       <c r="G129" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6778,7 +6802,7 @@
         <v>250</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6836,7 +6860,7 @@
         <v>254</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6865,7 +6889,7 @@
         <v>256</v>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6923,7 +6947,7 @@
         <v>260</v>
       </c>
       <c r="G135" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6952,7 +6976,7 @@
         <v>262</v>
       </c>
       <c r="G136" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -7010,7 +7034,7 @@
         <v>266</v>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -7039,7 +7063,7 @@
         <v>268</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7068,7 +7092,7 @@
         <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -7097,7 +7121,7 @@
         <v>272</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -7126,7 +7150,7 @@
         <v>274</v>
       </c>
       <c r="G142" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -7155,7 +7179,7 @@
         <v>276</v>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7184,7 +7208,7 @@
         <v>278</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7213,7 +7237,7 @@
         <v>280</v>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -7236,13 +7260,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -7265,13 +7289,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7294,13 +7318,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7323,13 +7347,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -7358,7 +7382,7 @@
         <v>288</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -7416,7 +7440,7 @@
         <v>292</v>
       </c>
       <c r="G152" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -7445,7 +7469,7 @@
         <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -7474,7 +7498,7 @@
         <v>296</v>
       </c>
       <c r="G154" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7503,7 +7527,7 @@
         <v>298</v>
       </c>
       <c r="G155" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7532,7 +7556,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7561,7 +7585,7 @@
         <v>302</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7590,7 +7614,7 @@
         <v>304</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7613,13 +7637,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7642,13 +7666,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7671,13 +7695,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7700,13 +7724,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="G162" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7735,7 +7759,7 @@
         <v>312</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7764,7 +7788,7 @@
         <v>314</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7793,7 +7817,7 @@
         <v>316</v>
       </c>
       <c r="G165" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7822,7 +7846,7 @@
         <v>318</v>
       </c>
       <c r="G166" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7880,7 +7904,7 @@
         <v>322</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7909,7 +7933,7 @@
         <v>324</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7967,7 +7991,7 @@
         <v>328</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7996,7 +8020,7 @@
         <v>330</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -8083,7 +8107,7 @@
         <v>336</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -8112,7 +8136,7 @@
         <v>338</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8141,7 +8165,7 @@
         <v>340</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8199,7 +8223,7 @@
         <v>344</v>
       </c>
       <c r="G179" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8228,7 +8252,7 @@
         <v>346</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8257,7 +8281,7 @@
         <v>348</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8286,7 +8310,7 @@
         <v>350</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8315,7 +8339,7 @@
         <v>352</v>
       </c>
       <c r="G183" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8338,13 +8362,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8367,13 +8391,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8396,13 +8420,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8425,13 +8449,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>163</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -9127,7 +9151,7 @@
         <v>406</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9156,7 +9180,7 @@
         <v>408</v>
       </c>
       <c r="G212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9185,7 +9209,7 @@
         <v>410</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9214,7 +9238,7 @@
         <v>412</v>
       </c>
       <c r="G214" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9243,7 +9267,7 @@
         <v>414</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9301,7 +9325,7 @@
         <v>418</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9359,7 +9383,7 @@
         <v>422</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9388,7 +9412,7 @@
         <v>424</v>
       </c>
       <c r="G220" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9417,7 +9441,7 @@
         <v>426</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9446,7 +9470,7 @@
         <v>428</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9475,7 +9499,7 @@
         <v>430</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9533,7 +9557,7 @@
         <v>434</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9591,7 +9615,7 @@
         <v>438</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9707,7 +9731,7 @@
         <v>446</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9794,7 +9818,7 @@
         <v>452</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9881,7 +9905,7 @@
         <v>458</v>
       </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9968,7 +9992,7 @@
         <v>464</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10113,7 +10137,7 @@
         <v>474</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10171,7 +10195,7 @@
         <v>478</v>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10258,7 +10282,7 @@
         <v>484</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10287,7 +10311,7 @@
         <v>486</v>
       </c>
       <c r="G251" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10374,7 +10398,7 @@
         <v>492</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10461,7 +10485,7 @@
         <v>498</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10484,13 +10508,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>17</v>
+        <v>499</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10513,10 +10537,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10542,13 +10566,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10571,13 +10595,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>18</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10658,13 +10682,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>87</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>88</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10687,10 +10711,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10716,10 +10740,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10745,13 +10769,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>88</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10780,7 +10804,7 @@
         <v>516</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10838,7 +10862,7 @@
         <v>520</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10867,7 +10891,7 @@
         <v>522</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10896,7 +10920,7 @@
         <v>524</v>
       </c>
       <c r="G272" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10925,7 +10949,7 @@
         <v>526</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10983,7 +11007,7 @@
         <v>530</v>
       </c>
       <c r="G275" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11012,7 +11036,7 @@
         <v>532</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11070,7 +11094,7 @@
         <v>536</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11122,10 +11146,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F280" t="s">
-        <v>198</v>
+        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11151,13 +11175,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11180,13 +11204,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G282" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11209,10 +11233,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>197</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>198</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11244,7 +11268,7 @@
         <v>546</v>
       </c>
       <c r="G284" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11273,7 +11297,7 @@
         <v>548</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11331,7 +11355,7 @@
         <v>552</v>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11360,7 +11384,7 @@
         <v>554</v>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11389,7 +11413,7 @@
         <v>556</v>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11418,7 +11442,7 @@
         <v>558</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11447,7 +11471,7 @@
         <v>560</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11476,7 +11500,7 @@
         <v>562</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11969,7 +11993,7 @@
         <v>596</v>
       </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11992,10 +12016,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>305</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>306</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12021,10 +12045,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12050,13 +12074,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12079,10 +12103,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>311</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>312</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12346,7 +12370,7 @@
         <v>620</v>
       </c>
       <c r="G322" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12433,7 +12457,7 @@
         <v>626</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12520,7 +12544,7 @@
         <v>632</v>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12607,7 +12631,7 @@
         <v>638</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12636,7 +12660,7 @@
         <v>640</v>
       </c>
       <c r="G332" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12665,7 +12689,7 @@
         <v>642</v>
       </c>
       <c r="G333" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12723,7 +12747,7 @@
         <v>646</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12752,7 +12776,7 @@
         <v>648</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12897,7 +12921,7 @@
         <v>658</v>
       </c>
       <c r="G341" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12955,7 +12979,7 @@
         <v>662</v>
       </c>
       <c r="G343" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12984,7 +13008,7 @@
         <v>664</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13013,7 +13037,7 @@
         <v>666</v>
       </c>
       <c r="G345" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13042,7 +13066,7 @@
         <v>668</v>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13071,7 +13095,7 @@
         <v>670</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13100,7 +13124,7 @@
         <v>672</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13129,7 +13153,7 @@
         <v>674</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13158,7 +13182,7 @@
         <v>676</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13187,7 +13211,7 @@
         <v>678</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13216,7 +13240,7 @@
         <v>680</v>
       </c>
       <c r="G352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13274,7 +13298,7 @@
         <v>684</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13303,7 +13327,7 @@
         <v>686</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13332,7 +13356,7 @@
         <v>688</v>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13390,7 +13414,7 @@
         <v>692</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13419,7 +13443,7 @@
         <v>694</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13477,7 +13501,7 @@
         <v>698</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13593,7 +13617,7 @@
         <v>706</v>
       </c>
       <c r="G365" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13651,7 +13675,7 @@
         <v>710</v>
       </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13709,7 +13733,7 @@
         <v>714</v>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13767,7 +13791,7 @@
         <v>718</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13848,10 +13872,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>271</v>
+        <v>723</v>
       </c>
       <c r="F374" t="s">
-        <v>272</v>
+        <v>724</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13877,10 +13901,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F375" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13906,10 +13930,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F376" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13935,10 +13959,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F377" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13964,10 +13988,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>729</v>
+        <v>277</v>
       </c>
       <c r="F378" t="s">
-        <v>730</v>
+        <v>278</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14115,7 +14139,7 @@
         <v>740</v>
       </c>
       <c r="G383" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14231,7 +14255,7 @@
         <v>748</v>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14260,7 +14284,7 @@
         <v>750</v>
       </c>
       <c r="G388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14318,7 +14342,7 @@
         <v>754</v>
       </c>
       <c r="G390" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14376,7 +14400,7 @@
         <v>758</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14434,7 +14458,7 @@
         <v>762</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -16058,7 +16082,7 @@
         <v>874</v>
       </c>
       <c r="G450" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16174,12 +16198,128 @@
         <v>882</v>
       </c>
       <c r="G454" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
       </c>
       <c r="I454" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1</v>
+      </c>
+      <c r="D455" t="n">
+        <v>454</v>
+      </c>
+      <c r="E455" t="s">
+        <v>883</v>
+      </c>
+      <c r="F455" t="s">
+        <v>884</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1</v>
+      </c>
+      <c r="H455" t="s">
+        <v>4</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1</v>
+      </c>
+      <c r="D456" t="n">
+        <v>455</v>
+      </c>
+      <c r="E456" t="s">
+        <v>885</v>
+      </c>
+      <c r="F456" t="s">
+        <v>886</v>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="s">
+        <v>4</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1</v>
+      </c>
+      <c r="D457" t="n">
+        <v>456</v>
+      </c>
+      <c r="E457" t="s">
+        <v>887</v>
+      </c>
+      <c r="F457" t="s">
+        <v>888</v>
+      </c>
+      <c r="G457" t="n">
+        <v>1</v>
+      </c>
+      <c r="H457" t="s">
+        <v>4</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>457</v>
+      </c>
+      <c r="E458" t="s">
+        <v>889</v>
+      </c>
+      <c r="F458" t="s">
+        <v>890</v>
+      </c>
+      <c r="G458" t="n">
+        <v>1</v>
+      </c>
+      <c r="H458" t="s">
+        <v>4</v>
+      </c>
+      <c r="I458" t="n">
         <v>3</v>
       </c>
     </row>
